--- a/monitora.xlsx
+++ b/monitora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1158\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edugc\Documents\GitHub\TecnicasDeProgramacao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502668D1-345F-40B9-9F89-C5141586873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD24513-94BF-47D7-91AE-B6E268BC905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -2457,7 +2457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2995,7 +2995,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3295,14 +3295,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>173</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>218</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>220</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>223</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>226</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>228</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>230</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>232</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>236</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>241</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>245</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>247</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>250</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>252</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>264</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>268</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>271</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>276</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>278</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>284</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>286</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>288</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>290</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>292</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>294</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>298</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>300</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>302</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>304</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>306</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>308</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>310</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>312</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>314</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>316</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>318</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>320</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>322</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>324</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>326</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>331</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>333</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>335</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>337</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>339</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>343</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>347</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>351</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>353</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>356</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>358</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>360</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>362</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>366</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>368</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>370</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>375</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>377</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>379</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>381</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>383</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>387</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>390</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>392</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>394</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>396</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>398</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>400</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>402</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>404</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>406</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>408</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:46">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:46">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>414</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:46">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:46">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>418</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:46">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>421</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:46">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>424</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:46">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>426</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:46">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>429</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:46">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>431</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:46">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>434</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:46">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>436</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="156" spans="1:46">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>438</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:46">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>440</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:46">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>442</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:46">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>444</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:46">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>446</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>448</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>451</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>453</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>455</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>457</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>459</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>461</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>463</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>465</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>467</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>469</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>471</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>476</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>480</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="1:44">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>483</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:44">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>486</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:44">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>488</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="180" spans="1:44">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>490</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:44">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>492</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:44">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>494</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="1:44">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>496</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:44">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>499</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:44">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>502</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="186" spans="1:44">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>505</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="1:44">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>507</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="188" spans="1:44">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>509</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:44">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:44">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>513</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:44">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>515</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:44">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>517</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:46">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>519</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:46">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>521</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:46">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>523</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="196" spans="1:46">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>526</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:46">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>528</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:46">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>530</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:46">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>532</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:46">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>534</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="201" spans="1:46">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>537</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="1:46">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>540</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:46">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>542</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="204" spans="1:46">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>544</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="205" spans="1:46">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>547</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:46">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>549</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:46">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>551</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="208" spans="1:46">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>553</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="209" spans="1:49">
+    <row r="209" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>555</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:49">
+    <row r="210" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>557</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="211" spans="1:49">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>560</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:49">
+    <row r="212" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>562</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="213" spans="1:49">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>564</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:49">
+    <row r="214" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>567</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:49">
+    <row r="215" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>569</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="216" spans="1:49">
+    <row r="216" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>572</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:49">
+    <row r="217" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>574</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:49">
+    <row r="218" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>576</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:49">
+    <row r="219" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>578</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:49">
+    <row r="220" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>580</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="221" spans="1:49">
+    <row r="221" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>582</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="222" spans="1:49">
+    <row r="222" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>584</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:49">
+    <row r="223" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>586</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="224" spans="1:49">
+    <row r="224" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>589</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="225" spans="1:49">
+    <row r="225" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>591</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:49">
+    <row r="226" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>594</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:49">
+    <row r="227" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>596</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228" spans="1:49">
+    <row r="228" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>598</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:49">
+    <row r="229" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>600</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:49">
+    <row r="230" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>602</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:49">
+    <row r="231" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>604</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="232" spans="1:49">
+    <row r="232" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>606</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:49">
+    <row r="233" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>608</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:49">
+    <row r="234" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>610</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:49">
+    <row r="235" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>612</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="236" spans="1:49">
+    <row r="236" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>614</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="1:49">
+    <row r="237" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>616</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:49">
+    <row r="238" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>618</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="239" spans="1:49">
+    <row r="239" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="240" spans="1:49">
+    <row r="240" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="241" spans="1:46">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:46">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>626</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="243" spans="1:46">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>628</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="244" spans="1:46">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>630</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="245" spans="1:46">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>632</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:46">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>634</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="247" spans="1:46">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>636</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="248" spans="1:46">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>638</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="1:46">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>640</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="250" spans="1:46">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>642</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:46">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>644</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="252" spans="1:46">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>646</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="253" spans="1:46">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>648</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:46">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>650</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="255" spans="1:46">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>652</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:46">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>654</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="257" spans="1:46">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>658</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="258" spans="1:46">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>660</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="259" spans="1:46">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>662</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="260" spans="1:46">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>664</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="261" spans="1:46">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>666</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:46">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>668</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="263" spans="1:46">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>670</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="264" spans="1:46">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>672</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="265" spans="1:46">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>674</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="266" spans="1:46">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>676</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="267" spans="1:46">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>678</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="268" spans="1:46">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>680</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="269" spans="1:46">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>682</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:46">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>684</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="271" spans="1:46">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>686</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="272" spans="1:46">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>688</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="273" spans="1:36">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>690</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="1:36">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>692</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="275" spans="1:36">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>694</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:36">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>696</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="277" spans="1:36">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>698</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="1:36">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>700</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="279" spans="1:36">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>702</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:36">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>704</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="281" spans="1:36">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>706</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="282" spans="1:36">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>708</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="283" spans="1:36">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>710</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="284" spans="1:36">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>712</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="285" spans="1:36">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>714</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="286" spans="1:36">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>716</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="287" spans="1:36">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>718</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="288" spans="1:36">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>720</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="289" spans="1:49">
+    <row r="289" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>722</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:49">
+    <row r="290" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>724</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="291" spans="1:49">
+    <row r="291" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>726</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="292" spans="1:49">
+    <row r="292" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>728</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="293" spans="1:49">
+    <row r="293" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>730</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="294" spans="1:49">
+    <row r="294" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>732</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="295" spans="1:49">
+    <row r="295" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>734</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="296" spans="1:49">
+    <row r="296" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>736</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="1:49">
+    <row r="297" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>738</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="298" spans="1:49">
+    <row r="298" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>740</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:49">
+    <row r="299" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>742</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="300" spans="1:49">
+    <row r="300" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>744</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="301" spans="1:49">
+    <row r="301" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>746</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" spans="1:49">
+    <row r="302" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>748</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="303" spans="1:49">
+    <row r="303" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>750</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="304" spans="1:49">
+    <row r="304" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>752</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="305" spans="1:44">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>754</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="306" spans="1:44">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>756</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="307" spans="1:44">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>758</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="308" spans="1:44">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>760</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:44">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>762</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="310" spans="1:44">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>764</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="311" spans="1:44">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>766</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="312" spans="1:44">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>768</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="313" spans="1:44">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>770</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="314" spans="1:44">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>773</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="315" spans="1:44">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>776</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="316" spans="1:44">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>779</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="317" spans="1:44">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>781</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:44">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>783</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:44">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>786</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="1:44">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>788</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:49">
+    <row r="321" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>790</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:49">
+    <row r="322" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>792</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:49">
+    <row r="323" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>794</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:49">
+    <row r="324" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>796</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="325" spans="1:49">
+    <row r="325" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>798</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="326" spans="1:49">
+    <row r="326" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>800</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="327" spans="1:49">
+    <row r="327" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>802</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:49">
+    <row r="328" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>804</v>
       </c>
